--- a/config_multi.xls/chat_duanyu_item.xlsx
+++ b/config_multi.xls/chat_duanyu_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12480" tabRatio="590"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="chat_duanyu_item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -578,6 +578,33 @@
   </si>
   <si>
     <t>nm_girl/msg_10.mp3</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>comeon</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>notmyday</t>
+  </si>
+  <si>
+    <t>luckyday</t>
+  </si>
+  <si>
+    <t>cheer</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>bye</t>
   </si>
 </sst>
 </file>
@@ -585,12 +612,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +648,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,8 +703,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +713,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +736,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,31 +764,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -724,14 +788,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -739,29 +795,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -769,6 +802,126 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -784,109 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,61 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,35 +996,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1012,24 +1016,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,6 +1063,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1071,10 +1104,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,137 +1116,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1549,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2863,6 +2899,132 @@
         <v>2</v>
       </c>
     </row>
+    <row r="66" ht="16.5" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
